--- a/Assets/LocalData/Calls.xlsx
+++ b/Assets/LocalData/Calls.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -38,9 +38,6 @@
     <t>09:00 - 09:40</t>
   </si>
   <si>
-    <t>09:00 - 09:20</t>
-  </si>
-  <si>
     <t>09:00 - 09:35</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>14:35 - 15:10</t>
+  </si>
+  <si>
+    <t>09.00 - 09.20</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A1:AMK9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,81 +444,81 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/LocalData/Calls.xlsx
+++ b/Assets/LocalData/Calls.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Unity Projects\Interactive Stand\Assets\LocalData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,67 +35,67 @@
     <t>СБ</t>
   </si>
   <si>
+    <t>09:00 - 09:35</t>
+  </si>
+  <si>
+    <t>09:30 - 10:05</t>
+  </si>
+  <si>
+    <t>09:45 - 10:20</t>
+  </si>
+  <si>
+    <t>10:45 - 11:25</t>
+  </si>
+  <si>
+    <t>10:20 - 10:55</t>
+  </si>
+  <si>
+    <t>10:35 - 11:10</t>
+  </si>
+  <si>
+    <t>11:45 - 12:25</t>
+  </si>
+  <si>
+    <t>11:15 - 11:50</t>
+  </si>
+  <si>
+    <t>11:25 - 12:00</t>
+  </si>
+  <si>
+    <t>12:45 - 13:25</t>
+  </si>
+  <si>
+    <t>12:10 - 12:45</t>
+  </si>
+  <si>
+    <t>12:15 - 12:50</t>
+  </si>
+  <si>
+    <t>13:40 - 14:20</t>
+  </si>
+  <si>
+    <t>13:00 - 13:35</t>
+  </si>
+  <si>
+    <t>13:05 - 13:40</t>
+  </si>
+  <si>
+    <t>14:30 - 15:10</t>
+  </si>
+  <si>
+    <t>13:50 - 14:25</t>
+  </si>
+  <si>
+    <t>14:35 - 15:10</t>
+  </si>
+  <si>
+    <t>09.00 - 09.20</t>
+  </si>
+  <si>
+    <t>09:50   -   10:30</t>
+  </si>
+  <si>
     <t>09:00 - 09:40</t>
-  </si>
-  <si>
-    <t>09:00 - 09:35</t>
-  </si>
-  <si>
-    <t>09:50 - 10:30</t>
-  </si>
-  <si>
-    <t>09:30 - 10:05</t>
-  </si>
-  <si>
-    <t>09:45 - 10:20</t>
-  </si>
-  <si>
-    <t>10:45 - 11:25</t>
-  </si>
-  <si>
-    <t>10:20 - 10:55</t>
-  </si>
-  <si>
-    <t>10:35 - 11:10</t>
-  </si>
-  <si>
-    <t>11:45 - 12:25</t>
-  </si>
-  <si>
-    <t>11:15 - 11:50</t>
-  </si>
-  <si>
-    <t>11:25 - 12:00</t>
-  </si>
-  <si>
-    <t>12:45 - 13:25</t>
-  </si>
-  <si>
-    <t>12:10 - 12:45</t>
-  </si>
-  <si>
-    <t>12:15 - 12:50</t>
-  </si>
-  <si>
-    <t>13:40 - 14:20</t>
-  </si>
-  <si>
-    <t>13:00 - 13:35</t>
-  </si>
-  <si>
-    <t>13:05 - 13:40</t>
-  </si>
-  <si>
-    <t>14:30 - 15:10</t>
-  </si>
-  <si>
-    <t>13:50 - 14:25</t>
-  </si>
-  <si>
-    <t>14:35 - 15:10</t>
-  </si>
-  <si>
-    <t>09.00 - 09.20</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A1:AMK9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,84 +441,84 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
